--- a/src/main/resources/config/syllabus-meta.xlsx
+++ b/src/main/resources/config/syllabus-meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/projects/source/JEECoach/src/main/resources/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0635C9F1-BAA2-364B-8245-5595EF7B30AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5424645A-B551-F141-A3E6-4FF1436D9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="1020" windowWidth="28040" windowHeight="16940" xr2:uid="{E5086D8C-F500-604D-A0DE-CE740281D7DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$96</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="120">
   <si>
     <t>Standard</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>JEE Topic Mapping</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>BookName</t>
   </si>
 </sst>
 </file>
@@ -750,23 +756,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C7A917-7988-9446-B4E2-B26ED1A5A9DC}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -777,16 +784,19 @@
         <v>94</v>
       </c>
       <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -796,17 +806,20 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -816,17 +829,20 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3">
         <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -836,17 +852,20 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>97</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -856,17 +875,20 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -876,17 +898,20 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>99</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -896,17 +921,20 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -916,17 +944,20 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -936,17 +967,20 @@
       <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -956,17 +990,20 @@
       <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -976,17 +1013,20 @@
       <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -996,17 +1036,20 @@
       <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1016,17 +1059,20 @@
       <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1036,17 +1082,20 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1056,17 +1105,20 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1076,17 +1128,20 @@
       <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1096,17 +1151,20 @@
       <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -1116,17 +1174,20 @@
       <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1136,17 +1197,20 @@
       <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1156,17 +1220,20 @@
       <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1176,17 +1243,20 @@
       <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1196,17 +1266,20 @@
       <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1216,17 +1289,20 @@
       <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D23">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1236,17 +1312,20 @@
       <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -1256,17 +1335,20 @@
       <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1276,15 +1358,16 @@
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1294,15 +1377,16 @@
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1312,15 +1396,16 @@
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1330,15 +1415,16 @@
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1348,15 +1434,16 @@
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1366,15 +1453,16 @@
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <v>6</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1384,15 +1472,16 @@
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
         <v>7</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1402,15 +1491,16 @@
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
         <v>8</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1420,15 +1510,16 @@
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
         <v>9</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1438,15 +1529,16 @@
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
         <v>10</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1456,15 +1548,16 @@
       <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
         <v>11</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1474,15 +1567,16 @@
       <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
         <v>12</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1492,15 +1586,16 @@
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
         <v>13</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1510,15 +1605,16 @@
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
         <v>14</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1528,15 +1624,16 @@
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
         <v>15</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1546,15 +1643,16 @@
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
         <v>16</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1564,15 +1662,16 @@
       <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
         <v>17</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1582,15 +1681,16 @@
       <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
         <v>18</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1600,15 +1700,16 @@
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
         <v>19</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1618,15 +1719,16 @@
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
         <v>20</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -1636,15 +1738,16 @@
       <c r="C46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
         <v>21</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1654,15 +1757,16 @@
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
         <v>22</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1672,15 +1776,16 @@
       <c r="C48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
         <v>23</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -1690,15 +1795,16 @@
       <c r="C49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
         <v>24</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1708,15 +1814,16 @@
       <c r="C50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
         <v>25</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1726,15 +1833,16 @@
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
         <v>26</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1744,15 +1852,16 @@
       <c r="C52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
         <v>27</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -1762,15 +1871,16 @@
       <c r="C53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
         <v>28</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1780,15 +1890,16 @@
       <c r="C54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
         <v>29</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -1798,15 +1909,16 @@
       <c r="C55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
         <v>30</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -1816,15 +1928,16 @@
       <c r="C56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -1834,15 +1947,16 @@
       <c r="C57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
         <v>2</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -1852,15 +1966,16 @@
       <c r="C58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
         <v>3</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -1870,15 +1985,16 @@
       <c r="C59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="1">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -1888,15 +2004,16 @@
       <c r="C60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="1">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -1906,15 +2023,16 @@
       <c r="C61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
         <v>6</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -1924,15 +2042,16 @@
       <c r="C62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
         <v>7</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -1942,15 +2061,16 @@
       <c r="C63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
         <v>8</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -1960,15 +2080,16 @@
       <c r="C64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
         <v>9</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -1978,15 +2099,16 @@
       <c r="C65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1">
         <v>10</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -1996,15 +2118,16 @@
       <c r="C66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
         <v>11</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2014,15 +2137,16 @@
       <c r="C67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
         <v>12</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2032,15 +2156,16 @@
       <c r="C68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
         <v>13</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2050,15 +2175,16 @@
       <c r="C69" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
         <v>14</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -2068,15 +2194,16 @@
       <c r="C70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
         <v>15</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2086,15 +2213,16 @@
       <c r="C71" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
         <v>16</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -2104,15 +2232,16 @@
       <c r="C72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
         <v>17</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2122,15 +2251,16 @@
       <c r="C73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
         <v>18</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -2140,15 +2270,16 @@
       <c r="C74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
         <v>19</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -2158,15 +2289,16 @@
       <c r="C75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1">
         <v>20</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -2176,15 +2308,16 @@
       <c r="C76" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
         <v>21</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -2194,15 +2327,16 @@
       <c r="C77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
         <v>22</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -2212,15 +2346,16 @@
       <c r="C78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
         <v>1</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -2230,15 +2365,16 @@
       <c r="C79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
         <v>2</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -2248,15 +2384,16 @@
       <c r="C80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1">
         <v>3</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -2266,15 +2403,16 @@
       <c r="C81" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="1">
-        <v>4</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -2284,15 +2422,16 @@
       <c r="C82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D82" s="1">
-        <v>5</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -2302,15 +2441,16 @@
       <c r="C83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1">
         <v>6</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -2320,15 +2460,16 @@
       <c r="C84" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1">
         <v>7</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -2338,15 +2479,16 @@
       <c r="C85" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
         <v>8</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -2356,15 +2498,16 @@
       <c r="C86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
         <v>9</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -2374,15 +2517,16 @@
       <c r="C87" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1">
         <v>10</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
@@ -2392,15 +2536,16 @@
       <c r="C88" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1">
         <v>11</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -2410,15 +2555,16 @@
       <c r="C89" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1">
         <v>12</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -2428,15 +2574,16 @@
       <c r="C90" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1">
         <v>13</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -2446,15 +2593,16 @@
       <c r="C91" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1">
         <v>14</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -2464,15 +2612,16 @@
       <c r="C92" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1">
         <v>15</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -2482,15 +2631,16 @@
       <c r="C93" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1">
         <v>16</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -2500,15 +2650,16 @@
       <c r="C94" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1">
         <v>17</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -2518,15 +2669,16 @@
       <c r="C95" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="1"/>
+      <c r="E95" s="1">
         <v>18</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
@@ -2536,17 +2688,18 @@
       <c r="C96" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1">
         <v>19</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E96" xr:uid="{39C7A917-7988-9446-B4E2-B26ED1A5A9DC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E93">
+  <autoFilter ref="A1:F96" xr:uid="{39C7A917-7988-9446-B4E2-B26ED1A5A9DC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F93">
     <sortCondition ref="B36:B93"/>
     <sortCondition ref="C36:C93"/>
   </sortState>
